--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE86BEC5-FE8E-49EB-8BB4-F7050E0DF2C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C55B6C-FDCC-48CC-BFD4-5CE4D260DE8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Powershell(y/n)</t>
   </si>
   <si>
-    <t>Authentication</t>
-  </si>
-  <si>
     <t>ntuttle</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Test Description 2</t>
+  </si>
+  <si>
+    <t>AUTH</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,95 +601,95 @@
     </row>
     <row r="2" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
         <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -697,16 +697,16 @@
     </row>
     <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -714,14 +714,14 @@
     </row>
     <row r="7" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -729,28 +729,28 @@
     </row>
     <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -758,14 +758,14 @@
     </row>
     <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -806,28 +806,28 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -862,28 +862,28 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Windows_PODs.xlsx
+++ b/Windows_PODs.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20340"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C55B6C-FDCC-48CC-BFD4-5CE4D260DE8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3B6FD-2F0A-48D4-825B-82594266D098}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ADS" sheetId="1" r:id="rId1"/>
     <sheet name="NET" sheetId="2" r:id="rId2"/>
-    <sheet name="CORE" sheetId="3" r:id="rId3"/>
+    <sheet name="SHA" sheetId="3" r:id="rId3"/>
+    <sheet name="PRF" sheetId="4" r:id="rId4"/>
+    <sheet name="UEX" sheetId="5" r:id="rId5"/>
+    <sheet name="DND" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -557,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -778,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9EADDC-B7C3-4DA1-ABDD-21E6149184D4}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,4 +893,172 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8341B9-54F8-4829-B514-896B1E7C77A4}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C6B2AAF-6D7F-49FF-BB60-90A2E671E2D5}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0D8BA8-5E40-443E-AAEB-BCF917EB7239}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>